--- a/Code/Results/Cases/Case_5_97/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_97/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.685293837901327</v>
+        <v>1.045634197174365</v>
       </c>
       <c r="C2">
-        <v>0.5505962226376369</v>
+        <v>0.275542105873825</v>
       </c>
       <c r="D2">
-        <v>0.05707114141579694</v>
+        <v>0.03046775130748358</v>
       </c>
       <c r="E2">
-        <v>0.04232504345363208</v>
+        <v>0.1124537920805614</v>
       </c>
       <c r="F2">
-        <v>0.4645534327011163</v>
+        <v>0.7163731155385165</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.2384559972619513</v>
+        <v>0.6502193167962069</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1583778237024873</v>
+        <v>0.203420809748259</v>
       </c>
       <c r="M2">
-        <v>0.4424407602844482</v>
+        <v>0.2252972918434466</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.306747310070278</v>
+        <v>2.464290182500179</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.335864831880599</v>
+        <v>0.9366361524033664</v>
       </c>
       <c r="C3">
-        <v>0.4970164162499202</v>
+        <v>0.2575815738641154</v>
       </c>
       <c r="D3">
-        <v>0.05151915905196347</v>
+        <v>0.02857376532173816</v>
       </c>
       <c r="E3">
-        <v>0.04437603156745284</v>
+        <v>0.1136927504556584</v>
       </c>
       <c r="F3">
-        <v>0.4366586774553127</v>
+        <v>0.7173328932413057</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.249634237194055</v>
+        <v>0.6606873729560832</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1439379038488937</v>
+        <v>0.2008182403035761</v>
       </c>
       <c r="M3">
-        <v>0.385135185529883</v>
+        <v>0.2083546590958676</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.263480372755694</v>
+        <v>2.482262635119895</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.121541128565013</v>
+        <v>0.8696382720136171</v>
       </c>
       <c r="C4">
-        <v>0.4641031031649163</v>
+        <v>0.2464920295403488</v>
       </c>
       <c r="D4">
-        <v>0.04810627193054273</v>
+        <v>0.02740426704868071</v>
       </c>
       <c r="E4">
-        <v>0.04570062178592915</v>
+        <v>0.1144972361490826</v>
       </c>
       <c r="F4">
-        <v>0.4207861709168839</v>
+        <v>0.7184973022593937</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.2574524329503767</v>
+        <v>0.6675917603935702</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.135257649265661</v>
+        <v>0.1993230431600566</v>
       </c>
       <c r="M4">
-        <v>0.3500554453204572</v>
+        <v>0.197983744319508</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.241064902384835</v>
+        <v>2.495242534327033</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.034230400477213</v>
+        <v>0.842319561810541</v>
       </c>
       <c r="C5">
-        <v>0.4506830914838247</v>
+        <v>0.2419577229966023</v>
       </c>
       <c r="D5">
-        <v>0.04671417063572392</v>
+        <v>0.02692606250322882</v>
       </c>
       <c r="E5">
-        <v>0.04625660802375964</v>
+        <v>0.114836088415067</v>
       </c>
       <c r="F5">
-        <v>0.4146152198749462</v>
+        <v>0.7191162298727676</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.2608682733734078</v>
+        <v>0.6705251319483203</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.131764055942071</v>
+        <v>0.1987396368328831</v>
       </c>
       <c r="M5">
-        <v>0.3357812221443908</v>
+        <v>0.1937658041536565</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.232917723474074</v>
+        <v>2.501020252061338</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.019733390673025</v>
+        <v>0.8377823638057293</v>
       </c>
       <c r="C6">
-        <v>0.4484541465940026</v>
+        <v>0.241203893721746</v>
       </c>
       <c r="D6">
-        <v>0.04648292427438605</v>
+        <v>0.02684655980097972</v>
       </c>
       <c r="E6">
-        <v>0.04634990189158905</v>
+        <v>0.1148930204349081</v>
       </c>
       <c r="F6">
-        <v>0.4136079702460336</v>
+        <v>0.7192277193780043</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.2614490649456762</v>
+        <v>0.6710194457080725</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1311864989724896</v>
+        <v>0.1986443283785704</v>
       </c>
       <c r="M6">
-        <v>0.3334121121509455</v>
+        <v>0.193065926979969</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.231622925559577</v>
+        <v>2.502009108945487</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.120363549686374</v>
+        <v>0.8692699069517857</v>
       </c>
       <c r="C7">
-        <v>0.4639221516304417</v>
+        <v>0.2464309395641067</v>
       </c>
       <c r="D7">
-        <v>0.04808750333647538</v>
+        <v>0.02739782435103422</v>
       </c>
       <c r="E7">
-        <v>0.04570805466744976</v>
+        <v>0.1145017613999479</v>
       </c>
       <c r="F7">
-        <v>0.4207017674605069</v>
+        <v>0.7185050648335505</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.2574975825973382</v>
+        <v>0.6676308361035446</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1352103605213912</v>
+        <v>0.199315070207625</v>
       </c>
       <c r="M7">
-        <v>0.3498628600858922</v>
+        <v>0.197926825780435</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.240951101600785</v>
+        <v>2.495318478485103</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.564745305810732</v>
+        <v>1.008067751678709</v>
       </c>
       <c r="C8">
-        <v>0.5321226654031648</v>
+        <v>0.2693622887155414</v>
       </c>
       <c r="D8">
-        <v>0.05515742953474501</v>
+        <v>0.02981608920282497</v>
       </c>
       <c r="E8">
-        <v>0.04301854838396602</v>
+        <v>0.1128719109716995</v>
       </c>
       <c r="F8">
-        <v>0.4546635113220248</v>
+        <v>0.7165845669065902</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.2421058087186836</v>
+        <v>0.6537296161164399</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1533584512291881</v>
+        <v>0.2025021387521306</v>
       </c>
       <c r="M8">
-        <v>0.4226562612457911</v>
+        <v>0.2194489965803541</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.290932573855287</v>
+        <v>2.470083019476675</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.439435692740631</v>
+        <v>1.279610971120064</v>
       </c>
       <c r="C9">
-        <v>0.6659347454437068</v>
+        <v>0.3138304408676902</v>
       </c>
       <c r="D9">
-        <v>0.06900701709094648</v>
+        <v>0.03450493096165985</v>
       </c>
       <c r="E9">
-        <v>0.03827204247292504</v>
+        <v>0.1100223379822383</v>
       </c>
       <c r="F9">
-        <v>0.5320977309105004</v>
+        <v>0.7173913841942863</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.2199825087351464</v>
+        <v>0.6302606422624244</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1905703448248133</v>
+        <v>0.2095659013156919</v>
       </c>
       <c r="M9">
-        <v>0.5665244032096695</v>
+        <v>0.26189794110973</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.424573511414025</v>
+        <v>2.436061116283071</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.086297640650741</v>
+        <v>1.478660359084074</v>
       </c>
       <c r="C10">
-        <v>0.7645866992906747</v>
+        <v>0.3461852634419245</v>
       </c>
       <c r="D10">
-        <v>0.07919977755056351</v>
+        <v>0.03791609509146809</v>
       </c>
       <c r="E10">
-        <v>0.03512028995722083</v>
+        <v>0.1081390733635839</v>
       </c>
       <c r="F10">
-        <v>0.5968937874782014</v>
+        <v>0.7207869119655825</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.2093552287488833</v>
+        <v>0.6153382926800646</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2191215558903679</v>
+        <v>0.215250441932298</v>
       </c>
       <c r="M10">
-        <v>0.6733325576339055</v>
+        <v>0.2932246992110734</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.54846642644668</v>
+        <v>2.420542698247374</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.382034670676148</v>
+        <v>1.569102509158199</v>
       </c>
       <c r="C11">
-        <v>0.8096127894985159</v>
+        <v>0.3608336005262629</v>
       </c>
       <c r="D11">
-        <v>0.08384699216529157</v>
+        <v>0.03946036856841317</v>
       </c>
       <c r="E11">
-        <v>0.03376255970061048</v>
+        <v>0.1073277917433864</v>
       </c>
       <c r="F11">
-        <v>0.6283980577083099</v>
+        <v>0.7229435143738812</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.205912372980972</v>
+        <v>0.6090554886343504</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2324264498801796</v>
+        <v>0.2179436861987938</v>
       </c>
       <c r="M11">
-        <v>0.7222659755799228</v>
+        <v>0.3075046140601856</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.611363978804917</v>
+        <v>2.415551732666387</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.494283012935227</v>
+        <v>1.603333855341759</v>
       </c>
       <c r="C12">
-        <v>0.8266908495259031</v>
+        <v>0.3663702309458756</v>
       </c>
       <c r="D12">
-        <v>0.08560884715896577</v>
+        <v>0.04004404255876182</v>
       </c>
       <c r="E12">
-        <v>0.03325964584595698</v>
+        <v>0.1070270982520678</v>
       </c>
       <c r="F12">
-        <v>0.6406474389466297</v>
+        <v>0.7238483971280374</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.2048241187155888</v>
+        <v>0.6067492080171561</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2375149515509634</v>
+        <v>0.218978942251411</v>
       </c>
       <c r="M12">
-        <v>0.7408546317375908</v>
+        <v>0.3129160324502962</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.636207753089423</v>
+        <v>2.413960055005731</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.470096010941518</v>
+        <v>1.595962313461484</v>
       </c>
       <c r="C13">
-        <v>0.823011448193995</v>
+        <v>0.3651782848844221</v>
       </c>
       <c r="D13">
-        <v>0.08522929947503854</v>
+        <v>0.03991838775970535</v>
       </c>
       <c r="E13">
-        <v>0.03336745299603838</v>
+        <v>0.107091568111964</v>
       </c>
       <c r="F13">
-        <v>0.637994646201733</v>
+        <v>0.7236495870778015</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.2050486531406506</v>
+        <v>0.6072426622645715</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2364167396820847</v>
+        <v>0.2187552979632841</v>
       </c>
       <c r="M13">
-        <v>0.7368484749544351</v>
+        <v>0.311750416515288</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.630810143520506</v>
+        <v>2.414289571086073</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.391263933515631</v>
+        <v>1.571919096420459</v>
       </c>
       <c r="C14">
-        <v>0.8110172197031886</v>
+        <v>0.3612893121558329</v>
       </c>
       <c r="D14">
-        <v>0.08399189651993311</v>
+        <v>0.03950841018991014</v>
       </c>
       <c r="E14">
-        <v>0.03372095785877116</v>
+        <v>0.1073029228746969</v>
       </c>
       <c r="F14">
-        <v>0.6293992541596225</v>
+        <v>0.7230161901957359</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.2058184309651949</v>
+        <v>0.6088642877647352</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2328440493487278</v>
+        <v>0.2180285493230514</v>
       </c>
       <c r="M14">
-        <v>0.7237940468970692</v>
+        <v>0.3079497376315743</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.613386817882486</v>
+        <v>2.415414801287852</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.34301221477881</v>
+        <v>1.557189646415168</v>
       </c>
       <c r="C15">
-        <v>0.803674205160803</v>
+        <v>0.3589058436480457</v>
       </c>
       <c r="D15">
-        <v>0.08323423630845639</v>
+        <v>0.039257141710479</v>
       </c>
       <c r="E15">
-        <v>0.03393896129387564</v>
+        <v>0.1074332327105125</v>
       </c>
       <c r="F15">
-        <v>0.6241767820650779</v>
+        <v>0.7226397123606318</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.2063184797617694</v>
+        <v>0.6098670773259229</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2306623589844889</v>
+        <v>0.2175853966415815</v>
       </c>
       <c r="M15">
-        <v>0.7158057447857686</v>
+        <v>0.3056222149895049</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.602850775291131</v>
+        <v>2.416142909029617</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.067004156066957</v>
+        <v>1.472747453689919</v>
       </c>
       <c r="C16">
-        <v>0.7616476556160308</v>
+        <v>0.3452265246706929</v>
       </c>
       <c r="D16">
-        <v>0.07889632782456601</v>
+        <v>0.03781501980650859</v>
       </c>
       <c r="E16">
-        <v>0.03521057556824769</v>
+        <v>0.1081930056654397</v>
       </c>
       <c r="F16">
-        <v>0.5948780473242365</v>
+        <v>0.7206583064176542</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.2096095180688913</v>
+        <v>0.6157590765512637</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2182588161506374</v>
+        <v>0.2150765873835923</v>
       </c>
       <c r="M16">
-        <v>0.6701423478540605</v>
+        <v>0.2922920373932669</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.544494663864725</v>
+        <v>2.420910564972701</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.898092418202737</v>
+        <v>1.420916340722727</v>
       </c>
       <c r="C17">
-        <v>0.735908128486102</v>
+        <v>0.3368165494904929</v>
       </c>
       <c r="D17">
-        <v>0.07623822067957775</v>
+        <v>0.03692838484843719</v>
       </c>
       <c r="E17">
-        <v>0.03601034631504374</v>
+        <v>0.1086707284572481</v>
       </c>
       <c r="F17">
-        <v>0.5774428007662777</v>
+        <v>0.7195996765182997</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.2119954653369227</v>
+        <v>0.6195032256755688</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.210734001701141</v>
+        <v>0.2135649658058298</v>
       </c>
       <c r="M17">
-        <v>0.6422240261446674</v>
+        <v>0.2841216905598642</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.510428595920615</v>
+        <v>2.42436575363763</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.801074782979811</v>
+        <v>1.391094547648777</v>
       </c>
       <c r="C18">
-        <v>0.7211170351125418</v>
+        <v>0.3319727803984449</v>
       </c>
       <c r="D18">
-        <v>0.07471029822920627</v>
+        <v>0.03641771356475942</v>
       </c>
       <c r="E18">
-        <v>0.03647748963447328</v>
+        <v>0.1089497782171569</v>
       </c>
       <c r="F18">
-        <v>0.5676036357993368</v>
+        <v>0.7190483678258275</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.213497793523068</v>
+        <v>0.6217043245301745</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2064354471623346</v>
+        <v>0.2127056252984971</v>
       </c>
       <c r="M18">
-        <v>0.6261981255626239</v>
+        <v>0.2794250894664714</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.491444591292975</v>
+        <v>2.426547727488753</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.768248258322615</v>
+        <v>1.380995755283379</v>
       </c>
       <c r="C19">
-        <v>0.7161111792770214</v>
+        <v>0.3303316437267654</v>
       </c>
       <c r="D19">
-        <v>0.07419311722440369</v>
+        <v>0.03624468942762604</v>
       </c>
       <c r="E19">
-        <v>0.03663687320914533</v>
+        <v>0.1090449944511576</v>
       </c>
       <c r="F19">
-        <v>0.5643039341680307</v>
+        <v>0.7188715879432763</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.2140283322023855</v>
+        <v>0.6224577417810018</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2049849637404861</v>
+        <v>0.2124164042862731</v>
       </c>
       <c r="M19">
-        <v>0.620777263765099</v>
+        <v>0.2778353846108956</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.485119176680001</v>
+        <v>2.427319909992633</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.916058965575701</v>
+        <v>1.426434889908364</v>
       </c>
       <c r="C20">
-        <v>0.7386466937454088</v>
+        <v>0.337712488296404</v>
       </c>
       <c r="D20">
-        <v>0.07652107852567269</v>
+        <v>0.03702284157881053</v>
       </c>
       <c r="E20">
-        <v>0.03592446866656895</v>
+        <v>0.1086194315536666</v>
       </c>
       <c r="F20">
-        <v>0.579279044067043</v>
+        <v>0.7197064077779274</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.2117279154127374</v>
+        <v>0.6190997305470063</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2115319431280653</v>
+        <v>0.2137248351101988</v>
       </c>
       <c r="M20">
-        <v>0.645192607153156</v>
+        <v>0.2849911536356657</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.513991264765565</v>
+        <v>2.423977792118563</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.414411399792755</v>
+        <v>1.578981651589061</v>
       </c>
       <c r="C21">
-        <v>0.8145394121743834</v>
+        <v>0.3624318817684582</v>
       </c>
       <c r="D21">
-        <v>0.08435529135640252</v>
+        <v>0.03962886089566098</v>
       </c>
       <c r="E21">
-        <v>0.03361681769634961</v>
+        <v>0.1072406659582832</v>
       </c>
       <c r="F21">
-        <v>0.6319150293777938</v>
+        <v>0.7231998380498652</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.2055863522790915</v>
+        <v>0.6083859975026726</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2338920329914345</v>
+        <v>0.2182415959207162</v>
       </c>
       <c r="M21">
-        <v>0.7276267831052934</v>
+        <v>0.3090659848330688</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.618475914984089</v>
+        <v>2.415076191547655</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.741648600364499</v>
+        <v>1.678579074148104</v>
       </c>
       <c r="C22">
-        <v>0.8643042005839163</v>
+        <v>0.3785268095889762</v>
       </c>
       <c r="D22">
-        <v>0.08948767448642059</v>
+        <v>0.04132556677728161</v>
       </c>
       <c r="E22">
-        <v>0.0321742372439795</v>
+        <v>0.1063775688459541</v>
       </c>
       <c r="F22">
-        <v>0.6681917864105742</v>
+        <v>0.7259973379648841</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.2028364438615355</v>
+        <v>0.6018088509698813</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2488008305936091</v>
+        <v>0.2212832007074184</v>
       </c>
       <c r="M22">
-        <v>0.7818486932163182</v>
+        <v>0.3248230270383488</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.692786577803304</v>
+        <v>2.41099755145143</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.566838986191556</v>
+        <v>1.625431870907107</v>
       </c>
       <c r="C23">
-        <v>0.8377265317421632</v>
+        <v>0.3699422913206263</v>
       </c>
       <c r="D23">
-        <v>0.08674710792961093</v>
+        <v>0.04042060650521506</v>
       </c>
       <c r="E23">
-        <v>0.03293806391507892</v>
+        <v>0.1068347460142665</v>
       </c>
       <c r="F23">
-        <v>0.6486488178450003</v>
+        <v>0.7244571235114847</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.2041830868843846</v>
+        <v>0.605280254388834</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2408150791507779</v>
+        <v>0.2196516531520842</v>
       </c>
       <c r="M23">
-        <v>0.7528746129372905</v>
+        <v>0.3164112064830604</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.6525443577342</v>
+        <v>2.413014992727199</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.907936006529212</v>
+        <v>1.423940026560388</v>
       </c>
       <c r="C24">
-        <v>0.7374085673546631</v>
+        <v>0.3373074616341967</v>
       </c>
       <c r="D24">
-        <v>0.07639319772850683</v>
+        <v>0.03698014059519039</v>
       </c>
       <c r="E24">
-        <v>0.03596327109739472</v>
+        <v>0.1086426091756401</v>
       </c>
       <c r="F24">
-        <v>0.5784483055854679</v>
+        <v>0.7196579760698043</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.2118484690452931</v>
+        <v>0.6192819995163603</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2111711083098413</v>
+        <v>0.2136525279460102</v>
       </c>
       <c r="M24">
-        <v>0.6438504353633974</v>
+        <v>0.2845980673647688</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.512378716502155</v>
+        <v>2.424152580487032</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.202238872432645</v>
+        <v>1.206226402677032</v>
       </c>
       <c r="C25">
-        <v>0.6296982348126505</v>
+        <v>0.3018553224590903</v>
       </c>
       <c r="D25">
-        <v>0.0652593039173226</v>
+        <v>0.03324231280993217</v>
       </c>
       <c r="E25">
-        <v>0.03949822786780888</v>
+        <v>0.1107562205916771</v>
       </c>
       <c r="F25">
-        <v>0.5098607392491274</v>
+        <v>0.7166820004923053</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.225033779779217</v>
+        <v>0.6362028030439042</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1803077194706049</v>
+        <v>0.2075679747205825</v>
       </c>
       <c r="M25">
-        <v>0.5274422956805225</v>
+        <v>0.2503892155922358</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.384210439911101</v>
+        <v>2.44360417470611</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_97/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_97/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.045634197174365</v>
+        <v>2.685293837901327</v>
       </c>
       <c r="C2">
-        <v>0.275542105873825</v>
+        <v>0.5505962226376937</v>
       </c>
       <c r="D2">
-        <v>0.03046775130748358</v>
+        <v>0.0570711414157401</v>
       </c>
       <c r="E2">
-        <v>0.1124537920805614</v>
+        <v>0.04232504345364574</v>
       </c>
       <c r="F2">
-        <v>0.7163731155385165</v>
+        <v>0.4645534327011376</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>0.6502193167962069</v>
+        <v>0.2384559972619478</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.203420809748259</v>
+        <v>0.1583778237025797</v>
       </c>
       <c r="M2">
-        <v>0.2252972918434466</v>
+        <v>0.4424407602844482</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.464290182500179</v>
+        <v>1.306747310070278</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9366361524033664</v>
+        <v>2.335864831880656</v>
       </c>
       <c r="C3">
-        <v>0.2575815738641154</v>
+        <v>0.4970164162493802</v>
       </c>
       <c r="D3">
-        <v>0.02857376532173816</v>
+        <v>0.05151915905207716</v>
       </c>
       <c r="E3">
-        <v>0.1136927504556584</v>
+        <v>0.04437603156743641</v>
       </c>
       <c r="F3">
-        <v>0.7173328932413057</v>
+        <v>0.4366586774553127</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.6606873729560832</v>
+        <v>0.2496342371940621</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2008182403035761</v>
+        <v>0.1439379038489292</v>
       </c>
       <c r="M3">
-        <v>0.2083546590958676</v>
+        <v>0.385135185529883</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.482262635119895</v>
+        <v>1.263480372755708</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8696382720136171</v>
+        <v>2.121541128564957</v>
       </c>
       <c r="C4">
-        <v>0.2464920295403488</v>
+        <v>0.4641031031648311</v>
       </c>
       <c r="D4">
-        <v>0.02740426704868071</v>
+        <v>0.04810627193053563</v>
       </c>
       <c r="E4">
-        <v>0.1144972361490826</v>
+        <v>0.04570062178593859</v>
       </c>
       <c r="F4">
-        <v>0.7184973022593937</v>
+        <v>0.4207861709168697</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.6675917603935702</v>
+        <v>0.2574524329504015</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1993230431600566</v>
+        <v>0.1352576492656894</v>
       </c>
       <c r="M4">
-        <v>0.197983744319508</v>
+        <v>0.3500554453204572</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.495242534327033</v>
+        <v>1.241064902384849</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.842319561810541</v>
+        <v>2.034230400477099</v>
       </c>
       <c r="C5">
-        <v>0.2419577229966023</v>
+        <v>0.4506830914839099</v>
       </c>
       <c r="D5">
-        <v>0.02692606250322882</v>
+        <v>0.04671417063560312</v>
       </c>
       <c r="E5">
-        <v>0.114836088415067</v>
+        <v>0.04625660802378584</v>
       </c>
       <c r="F5">
-        <v>0.7191162298727676</v>
+        <v>0.4146152198749391</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.6705251319483203</v>
+        <v>0.2608682733734184</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1987396368328831</v>
+        <v>0.1317640559422131</v>
       </c>
       <c r="M5">
-        <v>0.1937658041536565</v>
+        <v>0.3357812221443908</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.501020252061338</v>
+        <v>1.23291772347406</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8377823638057293</v>
+        <v>2.019733390672968</v>
       </c>
       <c r="C6">
-        <v>0.241203893721746</v>
+        <v>0.4484541465941163</v>
       </c>
       <c r="D6">
-        <v>0.02684655980097972</v>
+        <v>0.04648292427423684</v>
       </c>
       <c r="E6">
-        <v>0.1148930204349081</v>
+        <v>0.04634990189160249</v>
       </c>
       <c r="F6">
-        <v>0.7192277193780043</v>
+        <v>0.4136079702460336</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.6710194457080725</v>
+        <v>0.2614490649456833</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1986443283785704</v>
+        <v>0.1311864989725322</v>
       </c>
       <c r="M6">
-        <v>0.193065926979969</v>
+        <v>0.3334121121509313</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.502009108945487</v>
+        <v>1.231622925559563</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8692699069517857</v>
+        <v>2.120363549686203</v>
       </c>
       <c r="C7">
-        <v>0.2464309395641067</v>
+        <v>0.4639221516301575</v>
       </c>
       <c r="D7">
-        <v>0.02739782435103422</v>
+        <v>0.04808750333633327</v>
       </c>
       <c r="E7">
-        <v>0.1145017613999479</v>
+        <v>0.04570805466749206</v>
       </c>
       <c r="F7">
-        <v>0.7185050648335505</v>
+        <v>0.4207017674605069</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.6676308361035446</v>
+        <v>0.2574975825973489</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.199315070207625</v>
+        <v>0.1352103605213912</v>
       </c>
       <c r="M7">
-        <v>0.197926825780435</v>
+        <v>0.3498628600858922</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.495318478485103</v>
+        <v>1.240951101600729</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.008067751678709</v>
+        <v>2.564745305810789</v>
       </c>
       <c r="C8">
-        <v>0.2693622887155414</v>
+        <v>0.5321226654030511</v>
       </c>
       <c r="D8">
-        <v>0.02981608920282497</v>
+        <v>0.05515742953475211</v>
       </c>
       <c r="E8">
-        <v>0.1128719109716995</v>
+        <v>0.04301854838396435</v>
       </c>
       <c r="F8">
-        <v>0.7165845669065902</v>
+        <v>0.4546635113220105</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.6537296161164399</v>
+        <v>0.2421058087186871</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2025021387521306</v>
+        <v>0.1533584512291952</v>
       </c>
       <c r="M8">
-        <v>0.2194489965803541</v>
+        <v>0.4226562612457982</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.470083019476675</v>
+        <v>1.2909325738554</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.279610971120064</v>
+        <v>3.439435692740744</v>
       </c>
       <c r="C9">
-        <v>0.3138304408676902</v>
+        <v>0.6659347454437068</v>
       </c>
       <c r="D9">
-        <v>0.03450493096165985</v>
+        <v>0.06900701709106727</v>
       </c>
       <c r="E9">
-        <v>0.1100223379822383</v>
+        <v>0.03827204247292504</v>
       </c>
       <c r="F9">
-        <v>0.7173913841942863</v>
+        <v>0.5320977309104933</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.6302606422624244</v>
+        <v>0.2199825087351641</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2095659013156919</v>
+        <v>0.1905703448248417</v>
       </c>
       <c r="M9">
-        <v>0.26189794110973</v>
+        <v>0.5665244032096908</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.436061116283071</v>
+        <v>1.424573511413968</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.478660359084074</v>
+        <v>4.086297640650855</v>
       </c>
       <c r="C10">
-        <v>0.3461852634419245</v>
+        <v>0.7645866992906178</v>
       </c>
       <c r="D10">
-        <v>0.03791609509146809</v>
+        <v>0.07919977755057062</v>
       </c>
       <c r="E10">
-        <v>0.1081390733635839</v>
+        <v>0.03512028995719363</v>
       </c>
       <c r="F10">
-        <v>0.7207869119655825</v>
+        <v>0.5968937874782014</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.6153382926800646</v>
+        <v>0.2093552287488905</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.215250441932298</v>
+        <v>0.2191215558902542</v>
       </c>
       <c r="M10">
-        <v>0.2932246992110734</v>
+        <v>0.6733325576338984</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.420542698247374</v>
+        <v>1.548466426446623</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.569102509158199</v>
+        <v>4.382034670676262</v>
       </c>
       <c r="C11">
-        <v>0.3608336005262629</v>
+        <v>0.8096127894984022</v>
       </c>
       <c r="D11">
-        <v>0.03946036856841317</v>
+        <v>0.08384699216534841</v>
       </c>
       <c r="E11">
-        <v>0.1073277917433864</v>
+        <v>0.03376255970062281</v>
       </c>
       <c r="F11">
-        <v>0.7229435143738812</v>
+        <v>0.6283980577083241</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.6090554886343504</v>
+        <v>0.2059123729809755</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2179436861987938</v>
+        <v>0.2324264498801654</v>
       </c>
       <c r="M11">
-        <v>0.3075046140601856</v>
+        <v>0.7222659755799228</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.415551732666387</v>
+        <v>1.611363978804974</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.603333855341759</v>
+        <v>4.494283012935114</v>
       </c>
       <c r="C12">
-        <v>0.3663702309458756</v>
+        <v>0.8266908495258463</v>
       </c>
       <c r="D12">
-        <v>0.04004404255876182</v>
+        <v>0.08560884715907235</v>
       </c>
       <c r="E12">
-        <v>0.1070270982520678</v>
+        <v>0.03325964584597041</v>
       </c>
       <c r="F12">
-        <v>0.7238483971280374</v>
+        <v>0.6406474389466439</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.6067492080171561</v>
+        <v>0.2048241187155888</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.218978942251411</v>
+        <v>0.2375149515509207</v>
       </c>
       <c r="M12">
-        <v>0.3129160324502962</v>
+        <v>0.7408546317375979</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.413960055005731</v>
+        <v>1.636207753089536</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.595962313461484</v>
+        <v>4.470096010941518</v>
       </c>
       <c r="C13">
-        <v>0.3651782848844221</v>
+        <v>0.8230114481941939</v>
       </c>
       <c r="D13">
-        <v>0.03991838775970535</v>
+        <v>0.08522929947493196</v>
       </c>
       <c r="E13">
-        <v>0.107091568111964</v>
+        <v>0.03336745299603683</v>
       </c>
       <c r="F13">
-        <v>0.7236495870778015</v>
+        <v>0.6379946462017188</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.6072426622645715</v>
+        <v>0.205048653140647</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2187552979632841</v>
+        <v>0.2364167396820562</v>
       </c>
       <c r="M13">
-        <v>0.311750416515288</v>
+        <v>0.7368484749544351</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.414289571086073</v>
+        <v>1.630810143520506</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.571919096420459</v>
+        <v>4.391263933515404</v>
       </c>
       <c r="C14">
-        <v>0.3612893121558329</v>
+        <v>0.8110172197031602</v>
       </c>
       <c r="D14">
-        <v>0.03950841018991014</v>
+        <v>0.08399189651993311</v>
       </c>
       <c r="E14">
-        <v>0.1073029228746969</v>
+        <v>0.03372095785882401</v>
       </c>
       <c r="F14">
-        <v>0.7230161901957359</v>
+        <v>0.6293992541596367</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.6088642877647352</v>
+        <v>0.205818430965202</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2180285493230514</v>
+        <v>0.2328440493486994</v>
       </c>
       <c r="M14">
-        <v>0.3079497376315743</v>
+        <v>0.7237940468970692</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.415414801287852</v>
+        <v>1.613386817882514</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.557189646415168</v>
+        <v>4.343012214778753</v>
       </c>
       <c r="C15">
-        <v>0.3589058436480457</v>
+        <v>0.8036742051611157</v>
       </c>
       <c r="D15">
-        <v>0.039257141710479</v>
+        <v>0.08323423630845639</v>
       </c>
       <c r="E15">
-        <v>0.1074332327105125</v>
+        <v>0.03393896129387208</v>
       </c>
       <c r="F15">
-        <v>0.7226397123606318</v>
+        <v>0.6241767820650779</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.6098670773259229</v>
+        <v>0.2063184797617659</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2175853966415815</v>
+        <v>0.2306623589845316</v>
       </c>
       <c r="M15">
-        <v>0.3056222149895049</v>
+        <v>0.7158057447857686</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.416142909029617</v>
+        <v>1.602850775291245</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.472747453689919</v>
+        <v>4.067004156066673</v>
       </c>
       <c r="C16">
-        <v>0.3452265246706929</v>
+        <v>0.7616476556156613</v>
       </c>
       <c r="D16">
-        <v>0.03781501980650859</v>
+        <v>0.0788963278248076</v>
       </c>
       <c r="E16">
-        <v>0.1081930056654397</v>
+        <v>0.03521057556823604</v>
       </c>
       <c r="F16">
-        <v>0.7206583064176542</v>
+        <v>0.5948780473242223</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.6157590765512637</v>
+        <v>0.2096095180688948</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2150765873835923</v>
+        <v>0.2182588161506089</v>
       </c>
       <c r="M16">
-        <v>0.2922920373932669</v>
+        <v>0.6701423478540747</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.420910564972701</v>
+        <v>1.544494663864782</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.420916340722727</v>
+        <v>3.89809241820285</v>
       </c>
       <c r="C17">
-        <v>0.3368165494904929</v>
+        <v>0.7359081284861588</v>
       </c>
       <c r="D17">
-        <v>0.03692838484843719</v>
+        <v>0.07623822067958486</v>
       </c>
       <c r="E17">
-        <v>0.1086707284572481</v>
+        <v>0.03601034631501476</v>
       </c>
       <c r="F17">
-        <v>0.7195996765182997</v>
+        <v>0.5774428007662848</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.6195032256755688</v>
+        <v>0.2119954653369405</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2135649658058298</v>
+        <v>0.210734001701141</v>
       </c>
       <c r="M17">
-        <v>0.2841216905598642</v>
+        <v>0.6422240261446959</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.42436575363763</v>
+        <v>1.510428595920558</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.391094547648777</v>
+        <v>3.801074782979924</v>
       </c>
       <c r="C18">
-        <v>0.3319727803984449</v>
+        <v>0.7211170351130534</v>
       </c>
       <c r="D18">
-        <v>0.03641771356475942</v>
+        <v>0.07471029822929154</v>
       </c>
       <c r="E18">
-        <v>0.1089497782171569</v>
+        <v>0.03647748963450193</v>
       </c>
       <c r="F18">
-        <v>0.7190483678258275</v>
+        <v>0.5676036357993297</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.6217043245301745</v>
+        <v>0.2134977935230502</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2127056252984971</v>
+        <v>0.2064354471623204</v>
       </c>
       <c r="M18">
-        <v>0.2794250894664714</v>
+        <v>0.6261981255626097</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.426547727488753</v>
+        <v>1.491444591292947</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.380995755283379</v>
+        <v>3.76824825832233</v>
       </c>
       <c r="C19">
-        <v>0.3303316437267654</v>
+        <v>0.7161111792767372</v>
       </c>
       <c r="D19">
-        <v>0.03624468942762604</v>
+        <v>0.07419311722437527</v>
       </c>
       <c r="E19">
-        <v>0.1090449944511576</v>
+        <v>0.03663687320913989</v>
       </c>
       <c r="F19">
-        <v>0.7188715879432763</v>
+        <v>0.5643039341680378</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.6224577417810018</v>
+        <v>0.2140283322023819</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2124164042862731</v>
+        <v>0.204984963740344</v>
       </c>
       <c r="M19">
-        <v>0.2778353846108956</v>
+        <v>0.620777263765099</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.427319909992633</v>
+        <v>1.485119176680115</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.426434889908364</v>
+        <v>3.916058965575644</v>
       </c>
       <c r="C20">
-        <v>0.337712488296404</v>
+        <v>0.7386466937454372</v>
       </c>
       <c r="D20">
-        <v>0.03702284157881053</v>
+        <v>0.07652107852561585</v>
       </c>
       <c r="E20">
-        <v>0.1086194315536666</v>
+        <v>0.03592446866658483</v>
       </c>
       <c r="F20">
-        <v>0.7197064077779274</v>
+        <v>0.579279044067043</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.6190997305470063</v>
+        <v>0.2117279154127374</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2137248351101988</v>
+        <v>0.2115319431280511</v>
       </c>
       <c r="M20">
-        <v>0.2849911536356657</v>
+        <v>0.6451926071531631</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.423977792118563</v>
+        <v>1.513991264765536</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.578981651589061</v>
+        <v>4.414411399792925</v>
       </c>
       <c r="C21">
-        <v>0.3624318817684582</v>
+        <v>0.8145394121739287</v>
       </c>
       <c r="D21">
-        <v>0.03962886089566098</v>
+        <v>0.084355291356637</v>
       </c>
       <c r="E21">
-        <v>0.1072406659582832</v>
+        <v>0.03361681769635216</v>
       </c>
       <c r="F21">
-        <v>0.7231998380498652</v>
+        <v>0.6319150293777938</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.6083859975026726</v>
+        <v>0.2055863522791057</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2182415959207162</v>
+        <v>0.2338920329913918</v>
       </c>
       <c r="M21">
-        <v>0.3090659848330688</v>
+        <v>0.7276267831052934</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.415076191547655</v>
+        <v>1.618475914984089</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.678579074148104</v>
+        <v>4.741648600364613</v>
       </c>
       <c r="C22">
-        <v>0.3785268095889762</v>
+        <v>0.8643042005840869</v>
       </c>
       <c r="D22">
-        <v>0.04132556677728161</v>
+        <v>0.08948767448647743</v>
       </c>
       <c r="E22">
-        <v>0.1063775688459541</v>
+        <v>0.03217423724396729</v>
       </c>
       <c r="F22">
-        <v>0.7259973379648841</v>
+        <v>0.6681917864105884</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.6018088509698813</v>
+        <v>0.2028364438615355</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2212832007074184</v>
+        <v>0.2488008305936802</v>
       </c>
       <c r="M22">
-        <v>0.3248230270383488</v>
+        <v>0.7818486932163253</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.41099755145143</v>
+        <v>1.692786577803219</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.625431870907107</v>
+        <v>4.566838986191499</v>
       </c>
       <c r="C23">
-        <v>0.3699422913206263</v>
+        <v>0.8377265317421916</v>
       </c>
       <c r="D23">
-        <v>0.04042060650521506</v>
+        <v>0.08674710792960383</v>
       </c>
       <c r="E23">
-        <v>0.1068347460142665</v>
+        <v>0.03293806391507825</v>
       </c>
       <c r="F23">
-        <v>0.7244571235114847</v>
+        <v>0.6486488178450003</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.605280254388834</v>
+        <v>0.2041830868843881</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2196516531520842</v>
+        <v>0.2408150791506927</v>
       </c>
       <c r="M23">
-        <v>0.3164112064830604</v>
+        <v>0.7528746129372763</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.413014992727199</v>
+        <v>1.652544357734143</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.423940026560388</v>
+        <v>3.907936006529326</v>
       </c>
       <c r="C24">
-        <v>0.3373074616341967</v>
+        <v>0.7374085673545494</v>
       </c>
       <c r="D24">
-        <v>0.03698014059519039</v>
+        <v>0.07639319772849973</v>
       </c>
       <c r="E24">
-        <v>0.1086426091756401</v>
+        <v>0.0359632710974227</v>
       </c>
       <c r="F24">
-        <v>0.7196579760698043</v>
+        <v>0.5784483055854679</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.6192819995163603</v>
+        <v>0.2118484690452931</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2136525279460102</v>
+        <v>0.2111711083099692</v>
       </c>
       <c r="M24">
-        <v>0.2845980673647688</v>
+        <v>0.6438504353633903</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.424152580487032</v>
+        <v>1.512378716502127</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.206226402677032</v>
+        <v>3.202238872432531</v>
       </c>
       <c r="C25">
-        <v>0.3018553224590903</v>
+        <v>0.6296982348126789</v>
       </c>
       <c r="D25">
-        <v>0.03324231280993217</v>
+        <v>0.06525930391735102</v>
       </c>
       <c r="E25">
-        <v>0.1107562205916771</v>
+        <v>0.03949822786780821</v>
       </c>
       <c r="F25">
-        <v>0.7166820004923053</v>
+        <v>0.5098607392491346</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.6362028030439042</v>
+        <v>0.225033779779217</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2075679747205825</v>
+        <v>0.1803077194705764</v>
       </c>
       <c r="M25">
-        <v>0.2503892155922358</v>
+        <v>0.5274422956805012</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.44360417470611</v>
+        <v>1.384210439911158</v>
       </c>
     </row>
   </sheetData>
